--- a/biology/Microbiologie/Sulfolobus/Sulfolobus.xlsx
+++ b/biology/Microbiologie/Sulfolobus/Sulfolobus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sulfolobus est un genre d'archées de la famille des Sulfolobaceae. Ce sont des cellules coccoïdes, irrégulières et flagellées. Ces microorganismes sont à la fois hyperthermophiles (avec un optimum de croissance de 75 à 80 °C) et acidophiles (pH optimal de croissance proche de 2 ou 3) ; c'est par exemple le cas de Sulfolobus acidocaldarius, isolé de sources chaudes acides. Ils sont hétérotrophes ou autotrophes, leur énergie provenant de l’oxydation du soufre et/ou par respiration utilisant le soufre comme accepteur final d’électrons. Sulfolobus tokodaii oxyde le sulfure d'hydrogène H2S en sulfate SO42–.
 </t>
@@ -511,14 +523,16 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sulfolobus acidocaldarius
 Sulfolobus islandicus
 Sulfolobus solfataricus
 Sulfolobus tokodaii
 Les espèces du genre Sulfolobus sont souvent nommées d'après le lieu de leur première localisation, par exemple Sulfolobus solfataricus dans des solfatares. D'autres espèces sont isolées le plus souvent dans des régions volcaniques (États-Unis, Italie, Nouvelle-Zélande, Islande, Japon).
-Les génomes des espèces Sulfolobus solfataricus[1], Sulfolobus tokodaii[2], Sulfolobus acidocaldarius[3] et plus récemment Sulfolobus islandicus[4][5][6] sont entièrement séquencés.
+Les génomes des espèces Sulfolobus solfataricus, Sulfolobus tokodaii, Sulfolobus acidocaldarius et plus récemment Sulfolobus islandicus sont entièrement séquencés.
 Sulfolobus présente un intérêt en raison de la thermostabilité de ces protéines et des applications biotechnologiques potentielles qui peuvent en découler.
 Sulfolobus est également un modèle d'étude du mécanisme moléculaire de la réplication de l'ADN.
 </t>
